--- a/RPackageSource/inst/extdata/cometsMetaInput.xlsx
+++ b/RPackageSource/inst/extdata/cometsMetaInput.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\10\scp21228\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\8\scp41733\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F723D011-318C-48C3-8E2F-39F4C55E3FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBFF7E9-97EB-4C4D-BFB0-834AFB7EF9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24444" yWindow="2724" windowWidth="20124" windowHeight="6972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22800" yWindow="1128" windowWidth="21756" windowHeight="7668" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Models" sheetId="7" r:id="rId1"/>
-    <sheet name="Model_Types" sheetId="8" r:id="rId2"/>
+    <sheet name="Meta_Models" sheetId="7" r:id="rId1"/>
+    <sheet name="Meta_Types" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>2.9 Case selection stratified</t>
   </si>
@@ -91,9 +91,6 @@
     <t>7 Conditional logistic</t>
   </si>
   <si>
-    <t>MODEL_TYPE</t>
-  </si>
-  <si>
     <t>GLOBAL</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>min.nsub.total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify stratification variables and strata to exclude from the test for heterogeneity. For example, to have stratification values val98 and val99 removed from the stratification variable strat_var, the syntax is strat_var: val98, val99. This option can be listed on multiple lines of this sheet for multiple stratification variables. </t>
+  </si>
+  <si>
+    <t>strata.exclude.het.test</t>
+  </si>
+  <si>
+    <t>META_TYPE</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -188,6 +194,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +295,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Description of Models sheet</a:t>
+            <a:t>Description of Meta_Models sheet</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -315,7 +324,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>This Models' sheet is optional and allows users to decide</a:t>
+            <a:t>This sheet is optional and allows users to decide</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
@@ -387,7 +396,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>The MODEL_TYPE column defines the options to be used and links to the MODEL_TYPE column in the Model_Types sheet.</a:t>
+            <a:t>The META_TYPE column defines the options to be used and links to the META_TYPE column in the Meta_Types sheet.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -442,7 +451,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>If the MODEL_TYPE column is empty for a model, then the default options will be used.</a:t>
+            <a:t>If the META_TYPE column is empty for a model, then the default options will be used.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -533,7 +542,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Description of Model_Types</a:t>
+            <a:t>Description of Meta_Types</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -562,7 +571,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>This 'Model_Types' sheet is optional and </a:t>
+            <a:t>This 'Meta_Types' sheet is optional and </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="0" i="0" u="sng">
@@ -696,7 +705,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MODEL_TYPE,</a:t>
+            <a:t>META_TYPE,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
@@ -761,7 +770,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MODEL_TYPE column</a:t>
+            <a:t>META_TYPE column</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
             <a:solidFill>
@@ -797,7 +806,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Provides a name for a model type to be run. Names in this column should match names provided in the MODEL_TYPE column under the 'Models" sheet.  Specifying each column by name enables users the flexibility of modifying for one or more specific models.  Note that this setup enables users to run one model type with different default parameters.  </a:t>
+            <a:t>Provides a name for a model type to be run. Names in this column should match names provided in the META_TYPE column under the 'Meta_Models" sheet.  Specifying each column by name enables users the flexibility of modifying for one or more specific models.  Note that this setup enables users to run one model type with different default parameters.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -881,157 +890,6 @@
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1300" b="1" i="0" u="sng" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" i="0" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ModelChecks and ModelOutput in the MODEL_TYPE column</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> rows with ModelChecks and ModelOutput in the MODEL_TYPE column are options that are applied to all models. However, they can be changed for each model with an example on row 15. Other values of the MODEL_TYPE column should match with the MODEL_TYPE column in the Models sheet. Note that the terms ModelChecks and ModelOutput are reserved words and should not appear in the MODEL_TYPE column of the Models sheet.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1300" b="0" i="0">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1300" b="0" i="0">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" i="0" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>FUNCTION column</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1300" b="0" i="0">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Possible values of FUNCTION:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> correlation, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>glm,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> lm.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1300" b="0" i="0">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>All columns in this sheet except FUNCTION are case sensitive.</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1330,7 +1188,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,16 +1294,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E7ADE-3CCF-45F9-8696-FFDDDD28AFDE}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="76.88671875" customWidth="1"/>
@@ -1453,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1470,88 +1326,88 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1560,35 +1416,40 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="1"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
@@ -1603,12 +1464,12 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
@@ -1624,12 +1485,12 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31" s="1"/>
-      <c r="D31"/>
-      <c r="E31"/>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="1"/>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32"/>
@@ -1659,12 +1520,12 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44" s="1"/>
-      <c r="D44"/>
-      <c r="E44"/>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36" s="1"/>
+      <c r="D36"/>
+      <c r="E36"/>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
@@ -1708,12 +1569,12 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" s="1"/>
-      <c r="D54"/>
-      <c r="E54"/>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" s="1"/>
+      <c r="D51"/>
+      <c r="E51"/>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55"/>
@@ -1750,6 +1611,13 @@
       <c r="D59"/>
       <c r="E59"/>
     </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60" s="1"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPackageSource/inst/extdata/cometsMetaInput.xlsx
+++ b/RPackageSource/inst/extdata/cometsMetaInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\8\scp41733\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\6\scp26320\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBFF7E9-97EB-4C4D-BFB0-834AFB7EF9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C918C0B-2CC7-4C79-806A-547D3FA28BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22800" yWindow="1128" windowWidth="21756" windowHeight="7668" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21000" yWindow="1164" windowWidth="17724" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Models" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>2.9 Case selection stratified</t>
   </si>
@@ -142,13 +142,19 @@
     <t>min.nsub.total</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify stratification variables and strata to exclude from the test for heterogeneity. For example, to have stratification values val98 and val99 removed from the stratification variable strat_var, the syntax is strat_var: val98, val99. This option can be listed on multiple lines of this sheet for multiple stratification variables. </t>
-  </si>
-  <si>
     <t>strata.exclude.het.test</t>
   </si>
   <si>
     <t>META_TYPE</t>
+  </si>
+  <si>
+    <t>strat_var: val98, val99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify stratification variables and strata to EXCLUDE from the test for heterogeneity across strata. For example, to have stratification values val98 and val99 removed from the stratification variable strat_var, the syntax is strat_var: val98, val99. This option can be listed on multiple lines of this sheet for multiple stratification variables. </t>
+  </si>
+  <si>
+    <t>age_cat: 5, 6, 7</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,22 +1300,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E7ADE-3CCF-45F9-8696-FFDDDD28AFDE}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1427,36 +1435,43 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="1"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
@@ -1471,12 +1486,12 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
@@ -1492,12 +1507,12 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32" s="1"/>
-      <c r="D32"/>
-      <c r="E32"/>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33"/>
@@ -1527,12 +1542,12 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45" s="1"/>
-      <c r="D45"/>
-      <c r="E45"/>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" s="1"/>
+      <c r="D37"/>
+      <c r="E37"/>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
@@ -1576,12 +1591,12 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55" s="1"/>
-      <c r="D55"/>
-      <c r="E55"/>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52" s="1"/>
+      <c r="D52"/>
+      <c r="E52"/>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
@@ -1618,6 +1633,13 @@
       <c r="D60"/>
       <c r="E60"/>
     </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61" s="1"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPackageSource/inst/extdata/cometsMetaInput.xlsx
+++ b/RPackageSource/inst/extdata/cometsMetaInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\6\scp26320\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\13\scp02928\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C918C0B-2CC7-4C79-806A-547D3FA28BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052321E5-DFBC-4393-B3BA-71C291B9D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21000" yWindow="1164" windowWidth="17724" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19992" yWindow="1236" windowWidth="17100" windowHeight="8112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Models" sheetId="7" r:id="rId1"/>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E7ADE-3CCF-45F9-8696-FFDDDD28AFDE}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RPackageSource/inst/extdata/cometsMetaInput.xlsx
+++ b/RPackageSource/inst/extdata/cometsMetaInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\13\scp02928\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\7\scp13368\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052321E5-DFBC-4393-B3BA-71C291B9D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9270667-5E3F-44E4-917F-D900C47E84E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19992" yWindow="1236" windowWidth="17100" windowHeight="8112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23796" yWindow="1224" windowWidth="14784" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Models" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>2.9 Case selection stratified</t>
   </si>
@@ -148,13 +148,22 @@
     <t>META_TYPE</t>
   </si>
   <si>
-    <t>strat_var: val98, val99</t>
-  </si>
-  <si>
     <t xml:space="preserve">Specify stratification variables and strata to EXCLUDE from the test for heterogeneity across strata. For example, to have stratification values val98 and val99 removed from the stratification variable strat_var, the syntax is strat_var: val98, val99. This option can be listed on multiple lines of this sheet for multiple stratification variables. </t>
   </si>
   <si>
-    <t>age_cat: 5, 6, 7</t>
+    <t>strat_var= val98, val99</t>
+  </si>
+  <si>
+    <t>age_cat= 5, 6, 7</t>
+  </si>
+  <si>
+    <t>stopOnFileError</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
+  </si>
+  <si>
+    <t>To stop with an error message if any one of files produces an error when being processed. Otherwise any file that produces an error will be removed from the analysis.</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E7ADE-3CCF-45F9-8696-FFDDDD28AFDE}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1456,29 +1465,39 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="1"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
@@ -1493,12 +1512,12 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29" s="1"/>
-      <c r="D29"/>
-      <c r="E29"/>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" s="1"/>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
@@ -1514,12 +1533,12 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33" s="1"/>
-      <c r="D33"/>
-      <c r="E33"/>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" s="1"/>
+      <c r="D32"/>
+      <c r="E32"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
@@ -1549,12 +1568,12 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46" s="1"/>
-      <c r="D46"/>
-      <c r="E46"/>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38" s="1"/>
+      <c r="D38"/>
+      <c r="E38"/>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
@@ -1598,12 +1617,12 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56" s="1"/>
-      <c r="D56"/>
-      <c r="E56"/>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53" s="1"/>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57"/>
@@ -1640,6 +1659,13 @@
       <c r="D61"/>
       <c r="E61"/>
     </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62" s="1"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPackageSource/inst/extdata/cometsMetaInput.xlsx
+++ b/RPackageSource/inst/extdata/cometsMetaInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\7\scp13368\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\5\scp40878\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9270667-5E3F-44E4-917F-D900C47E84E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE3B14-E53D-43D4-9575-F7979677A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23796" yWindow="1224" windowWidth="14784" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1140" windowWidth="18984" windowHeight="11268" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Models" sheetId="7" r:id="rId1"/>
@@ -1309,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E7ADE-3CCF-45F9-8696-FFDDDD28AFDE}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1485,7 @@
     <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1495,16 +1495,11 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" s="1"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
@@ -1519,12 +1514,12 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30" s="1"/>
-      <c r="D30"/>
-      <c r="E30"/>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31"/>
@@ -1540,12 +1535,12 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" s="1"/>
-      <c r="D34"/>
-      <c r="E34"/>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" s="1"/>
+      <c r="D33"/>
+      <c r="E33"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
@@ -1575,12 +1570,12 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47" s="1"/>
-      <c r="D47"/>
-      <c r="E47"/>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39" s="1"/>
+      <c r="D39"/>
+      <c r="E39"/>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
@@ -1624,12 +1619,12 @@
       <c r="D53"/>
       <c r="E53"/>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57" s="1"/>
-      <c r="D57"/>
-      <c r="E57"/>
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" s="1"/>
+      <c r="D54"/>
+      <c r="E54"/>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58"/>
@@ -1666,6 +1661,13 @@
       <c r="D62"/>
       <c r="E62"/>
     </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" s="1"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
